--- a/output/ver4/sequential_ALO_20230803_064119.xlsx
+++ b/output/ver4/sequential_ALO_20230803_064119.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>7712</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>7528</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,12 +522,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>7583</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>8296</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>7546</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>7417</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>6323</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>039</t>
+          <t>7039</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>8419</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>6352</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -738,12 +738,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>7006</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>8337</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>6924</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>8214</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>7693</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>7638</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -954,12 +954,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>6907</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>051</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1008,12 +1008,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>8173</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>12367</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>11529</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0195</t>
+          <t>10195</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>12552</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0210</t>
+          <t>10210</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>11347</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1197,12 +1197,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0181</t>
+          <t>10181</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>11363</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>2138</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0210</t>
+          <t>10210</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9370</t>
+          <t>19370</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>15540</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>23249</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9516</t>
+          <t>19516</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8122</t>
+          <t>18122</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>21098</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8436</t>
+          <t>18436</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1467,12 +1467,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>5396</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>24138</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5100</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3006</t>
+          <t>23006</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5355</t>
+          <t>15355</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>8078</t>
+          <t>18078</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>11177</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1602,12 +1602,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>8779</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>7994</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>11178</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>11133</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>9633</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>11088</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0496</t>
+          <t>10496</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>9652</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>11178</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>11043</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>7922</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1899,12 +1899,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>11379</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>11178</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>8779</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1980,12 +1980,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>11357</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2007,12 +2007,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>8795</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>9578</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>8894</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>9578</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>9670</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5872</t>
+          <t>15872</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>2556</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>11879</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>15015</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>12972</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4942</t>
+          <t>14942</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4941</t>
+          <t>14941</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>2556</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>11971</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>14770</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2358,12 +2358,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>14648</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4177</t>
+          <t>14177</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2412,12 +2412,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>12911</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>13952</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2466,12 +2466,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>12993</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2493,12 +2493,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>12993</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2520,12 +2520,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3930</t>
+          <t>13930</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2547,12 +2547,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2850</t>
+          <t>12850</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>13054</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0876</t>
+          <t>10876</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>15739</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2655,12 +2655,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>2556</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>11971</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2682,12 +2682,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2932</t>
+          <t>12932</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>22039</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9547</t>
+          <t>19547</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2763,12 +2763,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>15435</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2790,12 +2790,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>6854</t>
+          <t>16854</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>11868</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4793</t>
+          <t>54793</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8307</t>
+          <t>18307</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>6873</t>
+          <t>16873</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2898,12 +2898,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>031</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>14431</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>9317</t>
+          <t>19317</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2952,12 +2952,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8160</t>
+          <t>18160</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2979,12 +2979,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8233</t>
+          <t>18233</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7053</t>
+          <t>17053</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9291</t>
+          <t>19291</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>6963</t>
+          <t>16963</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>3329</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5665</t>
+          <t>15665</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3114,12 +3114,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>6851</t>
+          <t>16851</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3141,12 +3141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8087</t>
+          <t>18087</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3168,12 +3168,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>8087</t>
+          <t>18087</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9238</t>
+          <t>19238</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3222,12 +3222,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0434</t>
+          <t>20434</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3249,12 +3249,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7300</t>
+          <t>17300</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>3329</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>5870</t>
+          <t>15870</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>3329</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5583</t>
+          <t>15583</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>3329</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5665</t>
+          <t>15665</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0605</t>
+          <t>20605</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>4199</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9344</t>
+          <t>19344</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>23144</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3438,12 +3438,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>24739</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4710</t>
+          <t>24710</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3492,12 +3492,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>21659</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3519,12 +3519,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>23117</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>21927</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>24739</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3600,12 +3600,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>6170</t>
+          <t>26170</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3627,12 +3627,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>5865</t>
+          <t>25865</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4653</t>
+          <t>24653</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3681,12 +3681,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0411</t>
+          <t>20411</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3708,12 +3708,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0366</t>
+          <t>20366</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3735,12 +3735,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>24568</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>24938</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3789,12 +3789,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3408</t>
+          <t>23408</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3816,12 +3816,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>6139</t>
+          <t>26139</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>25835</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3870,12 +3870,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4796</t>
+          <t>24796</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3897,12 +3897,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5264</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4483</t>
+          <t>24483</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0366</t>
+          <t>20366</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3951,12 +3951,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>6108</t>
+          <t>26108</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>13524</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4764</t>
+          <t>64764</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4005,12 +4005,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>12344</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>9546</t>
+          <t>59546</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4032,12 +4032,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>14688</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>9877</t>
+          <t>69877</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>11748</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>6971</t>
+          <t>56971</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>12344</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>9661</t>
+          <t>59661</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>12344</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>9777</t>
+          <t>59777</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2936</t>
+          <t>12936</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>61992</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4167,12 +4167,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>9324</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>6105</t>
+          <t>46105</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4194,12 +4194,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>9936</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>9018</t>
+          <t>49018</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>088</t>
+          <t>8088</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0072</t>
+          <t>40072</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4248,12 +4248,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>9324</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5963</t>
+          <t>45963</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4275,12 +4275,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>088</t>
+          <t>8088</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0194</t>
+          <t>40194</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4302,12 +4302,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>13524</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>5146</t>
+          <t>65146</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4329,12 +4329,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>15836</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>74392</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4356,12 +4356,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>088</t>
+          <t>8088</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0121</t>
+          <t>40121</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>7197</t>
+          <t>37197</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4410,12 +4410,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>8708</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3058</t>
+          <t>43058</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4437,12 +4437,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>12344</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>9623</t>
+          <t>59623</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>8708</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>3111</t>
+          <t>43111</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4491,12 +4491,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>12344</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>9892</t>
+          <t>59892</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>9324</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5934</t>
+          <t>45934</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4545,12 +4545,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>11148</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>54657</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>14688</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>9552</t>
+          <t>69552</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>8708</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>43084</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4626,12 +4626,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0992</t>
+          <t>30992</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>5313</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5584</t>
+          <t>25584</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>9055</t>
+          <t>29055</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4707,12 +4707,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0748</t>
+          <t>30748</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4734,12 +4734,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0718</t>
+          <t>30718</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4761,12 +4761,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>9083</t>
+          <t>29083</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4788,12 +4788,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0626</t>
+          <t>30626</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0748</t>
+          <t>30748</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0596</t>
+          <t>30596</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4869,12 +4869,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>7352</t>
+          <t>27352</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4896,12 +4896,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0748</t>
+          <t>30748</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4923,12 +4923,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0900</t>
+          <t>30900</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>0961</t>
+          <t>30961</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4977,12 +4977,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>0748</t>
+          <t>30748</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5004,12 +5004,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>8998</t>
+          <t>28998</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0809</t>
+          <t>30809</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5058,12 +5058,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>0809</t>
+          <t>30809</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5085,12 +5085,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0657</t>
+          <t>30657</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>31083</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5139,12 +5139,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>6495</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>0901</t>
+          <t>30901</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5166,12 +5166,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>9225</t>
+          <t>29225</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5193,12 +5193,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>080</t>
+          <t>6080</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>0310</t>
+          <t>30310</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5220,12 +5220,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>6636</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>32931</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>080</t>
+          <t>6080</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0474</t>
+          <t>30474</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>8280</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>0491</t>
+          <t>40491</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5301,12 +5301,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>8280</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>0320</t>
+          <t>40320</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>8280</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0377</t>
+          <t>40377</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>7736</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>7852</t>
+          <t>37852</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5382,12 +5382,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>7736</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>7931</t>
+          <t>37931</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5409,12 +5409,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>31608</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>0511</t>
+          <t>10511</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0372</t>
+          <t>50372</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>10009</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>7933</t>
+          <t>47933</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5490,12 +5490,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>11009</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2191</t>
+          <t>52191</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5517,12 +5517,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>9503</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>5655</t>
+          <t>45655</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5544,12 +5544,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>3957</t>
+          <t>33957</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>4251</t>
+          <t>34251</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5598,12 +5598,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>10009</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>8224</t>
+          <t>48224</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>31518</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>3957</t>
+          <t>33957</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5679,12 +5679,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>31518</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>13913</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>5109</t>
+          <t>65109</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>14849</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>8388</t>
+          <t>68388</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5760,12 +5760,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>5311</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>26649</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5787,12 +5787,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4060</t>
+          <t>24060</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>11503</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>4745</t>
+          <t>54745</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>12961</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>61316</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5868,12 +5868,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>5849</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>9141</t>
+          <t>29141</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5895,12 +5895,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>31563</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5922,12 +5922,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>31608</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>5311</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6483</t>
+          <t>26483</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5976,12 +5976,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>8760</t>
+          <t>18760</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>5311</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>6575</t>
+          <t>26575</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6030,12 +6030,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>6673</t>
+          <t>16673</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>4917</t>
+          <t>74917</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6057,12 +6057,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>6673</t>
+          <t>16673</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>5949</t>
+          <t>75949</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>14849</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>8614</t>
+          <t>68614</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>0009</t>
+          <t>10009</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>8042</t>
+          <t>48042</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6138,12 +6138,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>31653</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6165,12 +6165,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>8993</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>3636</t>
+          <t>43636</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6192,12 +6192,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>9100</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>92894</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6219,12 +6219,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>9688</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>8824</t>
+          <t>48824</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6246,12 +6246,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>11920</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>9408</t>
+          <t>59408</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6273,12 +6273,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>9896</t>
+          <t>49896</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>48902</t>
+          <t>248902</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6300,12 +6300,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>9896</t>
+          <t>49896</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>49265</t>
+          <t>249265</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>42060</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>11785</t>
+          <t>211785</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>42060</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>11846</t>
+          <t>211846</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6381,12 +6381,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>42060</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>11906</t>
+          <t>211906</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>8088</t>
+          <t>38088</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>92269</t>
+          <t>192269</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6435,12 +6435,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>0036</t>
+          <t>30036</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>53245</t>
+          <t>153245</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6462,12 +6462,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>42060</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>12027</t>
+          <t>212027</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>0036</t>
+          <t>30036</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>53245</t>
+          <t>153245</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6516,12 +6516,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>44688</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>24527</t>
+          <t>224527</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6543,12 +6543,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>0036</t>
+          <t>30036</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>53330</t>
+          <t>153330</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6570,12 +6570,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>44688</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>24527</t>
+          <t>224527</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6597,12 +6597,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>9896</t>
+          <t>49896</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>48250</t>
+          <t>248250</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6624,12 +6624,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>9425</t>
+          <t>29425</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>48297</t>
+          <t>148297</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6651,12 +6651,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>5135</t>
+          <t>35135</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>75566</t>
+          <t>175566</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6678,12 +6678,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>5161</t>
+          <t>45161</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>21934</t>
+          <t>221934</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6705,12 +6705,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>36265</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>80800</t>
+          <t>180800</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6732,12 +6732,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>21586</t>
+          <t>121586</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>05308</t>
+          <t>605308</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6759,12 +6759,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>29600</t>
+          <t>129600</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>77348</t>
+          <t>677348</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>942</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6813,12 +6813,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>336</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6894,12 +6894,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>099</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6921,12 +6921,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6948,12 +6948,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>942</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6975,12 +6975,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>336</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7002,12 +7002,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7029,12 +7029,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>336</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7056,12 +7056,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>336</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>967</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7137,12 +7137,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7164,12 +7164,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7218,12 +7218,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7245,12 +7245,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>929</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7272,12 +7272,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7299,12 +7299,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>336</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7326,12 +7326,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>336</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7353,12 +7353,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7380,12 +7380,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>1884</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7407,12 +7407,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>553</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>2257</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7434,12 +7434,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>553</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7461,12 +7461,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>401</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7488,12 +7488,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7515,12 +7515,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>319</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7542,12 +7542,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>623</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>2458</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>040</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>401</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7650,12 +7650,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>553</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7677,12 +7677,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>401</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7704,12 +7704,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>401</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7758,12 +7758,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7785,12 +7785,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7812,12 +7812,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7866,12 +7866,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>553</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7893,12 +7893,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7920,12 +7920,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>479</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7947,12 +7947,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8001,12 +8001,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8028,12 +8028,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8055,12 +8055,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8082,12 +8082,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>2785</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8109,12 +8109,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8136,12 +8136,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>748</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8163,12 +8163,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8190,12 +8190,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8217,12 +8217,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>2775</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8244,12 +8244,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>748</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>3143</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8271,12 +8271,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8298,12 +8298,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>536</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8325,12 +8325,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8352,12 +8352,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>748</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>3218</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8379,12 +8379,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8406,12 +8406,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>748</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8433,12 +8433,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>944</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8460,12 +8460,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>748</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8487,12 +8487,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8514,12 +8514,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>969</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8541,12 +8541,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>5309</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8568,12 +8568,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>5260</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8595,12 +8595,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>4749</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>5821</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8649,12 +8649,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>5293</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>5710</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8703,12 +8703,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>5765</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8730,12 +8730,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>5359</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8757,12 +8757,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>969</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>4389</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8784,12 +8784,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>4850</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8811,12 +8811,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>4865</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8838,12 +8838,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>969</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>4289</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8865,12 +8865,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>4879</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8892,12 +8892,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8919,12 +8919,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>5441</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8946,12 +8946,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>969</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8973,12 +8973,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>5784</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9000,12 +9000,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>4894</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9027,12 +9027,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>5309</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9054,12 +9054,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>4807</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
